--- a/羽毛球开销记录.xlsx
+++ b/羽毛球开销记录.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1024" documentId="8_{AD134EF6-2B5F-4B85-86EF-5CDC5C18ACFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB62CFD-17F4-4E87-BFDE-3485E7A70A26}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6825" yWindow="8970" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{79B80DE2-3226-425A-B6C0-E8E4D0057243}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{79B80DE2-3226-425A-B6C0-E8E4D0057243}"/>
   </bookViews>
   <sheets>
     <sheet name="年合计" sheetId="2" r:id="rId1"/>
@@ -5171,8 +5171,8 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5584,7 +5584,7 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -9027,8 +9027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1306048E-9AE7-49D5-A894-4ACAF3AF5241}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
